--- a/data/pca/factorExposure/factorExposure_2016-09-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.005841728873138051</v>
+        <v>0.01258887147932507</v>
       </c>
       <c r="C2">
-        <v>0.0553879807406743</v>
+        <v>0.04438782690510556</v>
       </c>
       <c r="D2">
-        <v>0.03360569248292514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06531619856040713</v>
+      </c>
+      <c r="E2">
+        <v>0.05054031578687707</v>
+      </c>
+      <c r="F2">
+        <v>-0.084665095108477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.06008534895231443</v>
+        <v>0.03051333048122208</v>
       </c>
       <c r="C3">
-        <v>0.09414533506568824</v>
+        <v>0.08090056126058544</v>
       </c>
       <c r="D3">
-        <v>0.07976361814300723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09179114849556233</v>
+      </c>
+      <c r="E3">
+        <v>0.05884135770828924</v>
+      </c>
+      <c r="F3">
+        <v>-0.01351363806573977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06065093756591983</v>
+        <v>0.05684423727348588</v>
       </c>
       <c r="C4">
-        <v>0.06193010130519876</v>
+        <v>0.06706183333735963</v>
       </c>
       <c r="D4">
-        <v>0.02539482733669042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05917407676304266</v>
+      </c>
+      <c r="E4">
+        <v>0.04916144121393162</v>
+      </c>
+      <c r="F4">
+        <v>-0.08690155734385724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03474936237182701</v>
+        <v>0.03363114754754218</v>
       </c>
       <c r="C6">
-        <v>0.03855540411495523</v>
+        <v>0.0348380459056873</v>
       </c>
       <c r="D6">
-        <v>0.0307826362307871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06786682110059457</v>
+      </c>
+      <c r="E6">
+        <v>0.05907406955074408</v>
+      </c>
+      <c r="F6">
+        <v>-0.07401850560091013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01827948343276382</v>
+        <v>0.01912793702955848</v>
       </c>
       <c r="C7">
-        <v>0.03951308594227587</v>
+        <v>0.03789078935911135</v>
       </c>
       <c r="D7">
-        <v>-0.00400207943013333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03698480499016847</v>
+      </c>
+      <c r="E7">
+        <v>0.03090325981871737</v>
+      </c>
+      <c r="F7">
+        <v>-0.1092064569145491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002296204592068124</v>
+        <v>0.003452654032565055</v>
       </c>
       <c r="C8">
-        <v>0.02337420208384743</v>
+        <v>0.02811145277947289</v>
       </c>
       <c r="D8">
-        <v>0.03235610513356933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03616946096879462</v>
+      </c>
+      <c r="E8">
+        <v>0.04080078507150275</v>
+      </c>
+      <c r="F8">
+        <v>-0.05208935975036617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03172491279270038</v>
+        <v>0.03601999156045949</v>
       </c>
       <c r="C9">
-        <v>0.04432998962286402</v>
+        <v>0.05272182407119162</v>
       </c>
       <c r="D9">
-        <v>0.01300496606709498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04511271647991182</v>
+      </c>
+      <c r="E9">
+        <v>0.04204271135073079</v>
+      </c>
+      <c r="F9">
+        <v>-0.09281336370191508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0745429552043749</v>
+        <v>0.1007529361950461</v>
       </c>
       <c r="C10">
-        <v>-0.1922768469220941</v>
+        <v>-0.1928075325474706</v>
       </c>
       <c r="D10">
-        <v>0.005745488984345112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0004975933004042846</v>
+      </c>
+      <c r="E10">
+        <v>0.04562560774187647</v>
+      </c>
+      <c r="F10">
+        <v>-0.0407159590504012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03718312733387074</v>
+        <v>0.0357708328195283</v>
       </c>
       <c r="C11">
-        <v>0.05587955852998203</v>
+        <v>0.05155245154984475</v>
       </c>
       <c r="D11">
-        <v>0.006024294733684935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03424358491747364</v>
+      </c>
+      <c r="E11">
+        <v>0.00481865024325033</v>
+      </c>
+      <c r="F11">
+        <v>-0.06639633685626488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03397686457680639</v>
+        <v>0.03637465354990056</v>
       </c>
       <c r="C12">
-        <v>0.04809930472761249</v>
+        <v>0.04798580577165015</v>
       </c>
       <c r="D12">
-        <v>0.00226737393116728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02562218764248979</v>
+      </c>
+      <c r="E12">
+        <v>0.01399588291108119</v>
+      </c>
+      <c r="F12">
+        <v>-0.06938771576784913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01092479044571323</v>
+        <v>0.01191321457918929</v>
       </c>
       <c r="C13">
-        <v>0.0425570389231001</v>
+        <v>0.04174600495709114</v>
       </c>
       <c r="D13">
-        <v>0.0169151346021145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06273087275259963</v>
+      </c>
+      <c r="E13">
+        <v>0.06064288434246067</v>
+      </c>
+      <c r="F13">
+        <v>-0.1144892455492046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.00596399731072366</v>
+        <v>0.005329707050368686</v>
       </c>
       <c r="C14">
-        <v>0.03238291780381872</v>
+        <v>0.03047867397918344</v>
       </c>
       <c r="D14">
-        <v>-0.01609180683622125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02802902973118127</v>
+      </c>
+      <c r="E14">
+        <v>0.02565594333827797</v>
+      </c>
+      <c r="F14">
+        <v>-0.09884122924830713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001172336040919061</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003173619861258636</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004203553246010088</v>
+      </c>
+      <c r="E15">
+        <v>-7.424643421176253e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.002859497937275627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03399106943525029</v>
+        <v>0.03318260840918348</v>
       </c>
       <c r="C16">
-        <v>0.04381186358285982</v>
+        <v>0.04595756902708473</v>
       </c>
       <c r="D16">
-        <v>0.006998805688866847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02880863671837106</v>
+      </c>
+      <c r="E16">
+        <v>0.01932206400811572</v>
+      </c>
+      <c r="F16">
+        <v>-0.07079687204868194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02100295584907405</v>
+        <v>0.01558132127785915</v>
       </c>
       <c r="C19">
-        <v>0.0627314250513229</v>
+        <v>0.05080523983464526</v>
       </c>
       <c r="D19">
-        <v>0.07091825102872344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09697135027202582</v>
+      </c>
+      <c r="E19">
+        <v>0.07794227009070839</v>
+      </c>
+      <c r="F19">
+        <v>-0.0928767125746853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01281988830967106</v>
+        <v>0.01294220057429513</v>
       </c>
       <c r="C20">
-        <v>0.04380791943162722</v>
+        <v>0.04124018627813542</v>
       </c>
       <c r="D20">
-        <v>0.01792347058178644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04096787736731883</v>
+      </c>
+      <c r="E20">
+        <v>0.0552942448899787</v>
+      </c>
+      <c r="F20">
+        <v>-0.09050375849828038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.007549021558243004</v>
+        <v>0.008024553033564428</v>
       </c>
       <c r="C21">
-        <v>0.04738085815949934</v>
+        <v>0.04487185677126337</v>
       </c>
       <c r="D21">
-        <v>0.03477692754509362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06907269279487643</v>
+      </c>
+      <c r="E21">
+        <v>0.07294949571837574</v>
+      </c>
+      <c r="F21">
+        <v>-0.135485790969618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001385043321443472</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02296140252624178</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03476904045022634</v>
+      </c>
+      <c r="E22">
+        <v>0.01823153253400743</v>
+      </c>
+      <c r="F22">
+        <v>-0.02171561371480567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001451719318645214</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02308754824617043</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03445335717419681</v>
+      </c>
+      <c r="E23">
+        <v>0.01852262068303159</v>
+      </c>
+      <c r="F23">
+        <v>-0.02158384494871332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02889657656844521</v>
+        <v>0.03275603091065092</v>
       </c>
       <c r="C24">
-        <v>0.04920769147261827</v>
+        <v>0.0538539949152911</v>
       </c>
       <c r="D24">
-        <v>0.002955123635515057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02715599277782747</v>
+      </c>
+      <c r="E24">
+        <v>0.0167553148577854</v>
+      </c>
+      <c r="F24">
+        <v>-0.0794750218244024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04225014413205417</v>
+        <v>0.04251030692113544</v>
       </c>
       <c r="C25">
-        <v>0.06075471394872967</v>
+        <v>0.05796745711810088</v>
       </c>
       <c r="D25">
-        <v>-0.006996960877742604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02459543154585591</v>
+      </c>
+      <c r="E25">
+        <v>0.01119959071147016</v>
+      </c>
+      <c r="F25">
+        <v>-0.08028291758790307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01177044487909414</v>
+        <v>0.01380742052726541</v>
       </c>
       <c r="C26">
-        <v>0.01543980399366168</v>
+        <v>0.01659105475068294</v>
       </c>
       <c r="D26">
-        <v>0.001257354930886952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02643315613235202</v>
+      </c>
+      <c r="E26">
+        <v>0.02826407204093656</v>
+      </c>
+      <c r="F26">
+        <v>-0.07651466449015459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08898615980026081</v>
+        <v>0.1357441352710959</v>
       </c>
       <c r="C28">
-        <v>-0.224491236200275</v>
+        <v>-0.2417628566227849</v>
       </c>
       <c r="D28">
-        <v>0.001390860882119699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01586183431216091</v>
+      </c>
+      <c r="E28">
+        <v>0.04667710457932805</v>
+      </c>
+      <c r="F28">
+        <v>-0.05505782176443353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.007564613051004156</v>
+        <v>0.006076680379206811</v>
       </c>
       <c r="C29">
-        <v>0.0259587863912993</v>
+        <v>0.0263190607007843</v>
       </c>
       <c r="D29">
-        <v>-0.01648163507814585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02197697656534344</v>
+      </c>
+      <c r="E29">
+        <v>0.02739240490164764</v>
+      </c>
+      <c r="F29">
+        <v>-0.0906951270598164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05038055785042322</v>
+        <v>0.04131950873058036</v>
       </c>
       <c r="C30">
-        <v>0.05855926111477956</v>
+        <v>0.06505234491956405</v>
       </c>
       <c r="D30">
-        <v>0.05018427475308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1077193972158801</v>
+      </c>
+      <c r="E30">
+        <v>0.0396357102538912</v>
+      </c>
+      <c r="F30">
+        <v>-0.1057707015514814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04951973261517244</v>
+        <v>0.05439350884262141</v>
       </c>
       <c r="C31">
-        <v>0.03344716744569527</v>
+        <v>0.054069817273635</v>
       </c>
       <c r="D31">
-        <v>-0.01218931795733625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007710156116805913</v>
+      </c>
+      <c r="E31">
+        <v>0.04886190165665672</v>
+      </c>
+      <c r="F31">
+        <v>-0.08405307144228519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009225561188940523</v>
+        <v>0.003844528421657046</v>
       </c>
       <c r="C32">
-        <v>0.04453583347129835</v>
+        <v>0.03352396187860671</v>
       </c>
       <c r="D32">
-        <v>0.02316261847984258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04986782669934439</v>
+      </c>
+      <c r="E32">
+        <v>0.02168934372539406</v>
+      </c>
+      <c r="F32">
+        <v>-0.07504707575774557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02518319911249602</v>
+        <v>0.02394405488436019</v>
       </c>
       <c r="C33">
-        <v>0.05966651453757643</v>
+        <v>0.05483668057710032</v>
       </c>
       <c r="D33">
-        <v>0.03204116286753432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08153149180070013</v>
+      </c>
+      <c r="E33">
+        <v>0.04907013834906251</v>
+      </c>
+      <c r="F33">
+        <v>-0.1306657424000403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04442705143702344</v>
+        <v>0.04098949024209923</v>
       </c>
       <c r="C34">
-        <v>0.06096344890333538</v>
+        <v>0.06375212459368985</v>
       </c>
       <c r="D34">
-        <v>-0.003502456195456403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0349095095860899</v>
+      </c>
+      <c r="E34">
+        <v>-0.006744938669844289</v>
+      </c>
+      <c r="F34">
+        <v>-0.0763321601547588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.007745245382759776</v>
+        <v>0.01318034900819951</v>
       </c>
       <c r="C36">
-        <v>0.01381512435089773</v>
+        <v>0.0123682844642346</v>
       </c>
       <c r="D36">
-        <v>0.001062459292451237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02863285999875599</v>
+      </c>
+      <c r="E36">
+        <v>0.03427501675702063</v>
+      </c>
+      <c r="F36">
+        <v>-0.08305430835883755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02790192809432437</v>
+        <v>0.02384435799348303</v>
       </c>
       <c r="C38">
-        <v>0.02932055345348446</v>
+        <v>0.02536799378726089</v>
       </c>
       <c r="D38">
-        <v>0.0006423484610161559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02620966961260653</v>
+      </c>
+      <c r="E38">
+        <v>0.03285053341407366</v>
+      </c>
+      <c r="F38">
+        <v>-0.06887312294186076</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03980412595443985</v>
+        <v>0.03859982908475743</v>
       </c>
       <c r="C39">
-        <v>0.07248943565750289</v>
+        <v>0.06869767724358825</v>
       </c>
       <c r="D39">
-        <v>0.02006153736468077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05315317079388009</v>
+      </c>
+      <c r="E39">
+        <v>0.01918535459343328</v>
+      </c>
+      <c r="F39">
+        <v>-0.0928688856073151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01409894176455171</v>
+        <v>0.01502107563408972</v>
       </c>
       <c r="C40">
-        <v>0.03721698136602747</v>
+        <v>0.04041604530691514</v>
       </c>
       <c r="D40">
-        <v>0.03258471140991852</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0387331821641515</v>
+      </c>
+      <c r="E40">
+        <v>0.06852944540583109</v>
+      </c>
+      <c r="F40">
+        <v>-0.08890297037294898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008538920255761948</v>
+        <v>0.01744521718823916</v>
       </c>
       <c r="C41">
-        <v>0.008882150334052775</v>
+        <v>0.00643662592223296</v>
       </c>
       <c r="D41">
-        <v>0.001088834793887453</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01702424209188187</v>
+      </c>
+      <c r="E41">
+        <v>0.03705559196720281</v>
+      </c>
+      <c r="F41">
+        <v>-0.07107513407066006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001582193320933231</v>
+        <v>0.001191409948980392</v>
       </c>
       <c r="C42">
-        <v>0.004973906462052428</v>
+        <v>0.002655806805825018</v>
       </c>
       <c r="D42">
-        <v>0.00844389229919932</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001011791872350894</v>
+      </c>
+      <c r="E42">
+        <v>0.007153453643817372</v>
+      </c>
+      <c r="F42">
+        <v>0.00705044248025206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0316493981548825</v>
+        <v>0.02868587981244691</v>
       </c>
       <c r="C43">
-        <v>0.02472160865806309</v>
+        <v>0.02149292664970638</v>
       </c>
       <c r="D43">
-        <v>0.01298812957676573</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04053137040494856</v>
+      </c>
+      <c r="E43">
+        <v>0.04301037899180162</v>
+      </c>
+      <c r="F43">
+        <v>-0.08503254862892518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01661888184711951</v>
+        <v>0.01362389044212282</v>
       </c>
       <c r="C44">
-        <v>0.05641273366509665</v>
+        <v>0.05240009433987745</v>
       </c>
       <c r="D44">
-        <v>0.01533184912970693</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03990122885812662</v>
+      </c>
+      <c r="E44">
+        <v>0.05541266964244205</v>
+      </c>
+      <c r="F44">
+        <v>-0.0902947945138642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0004924376080523868</v>
+        <v>0.007193841905794109</v>
       </c>
       <c r="C46">
-        <v>0.0233264730831444</v>
+        <v>0.02553251620280216</v>
       </c>
       <c r="D46">
-        <v>-0.020845961990935</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01330445294444094</v>
+      </c>
+      <c r="E46">
+        <v>0.0333374915210282</v>
+      </c>
+      <c r="F46">
+        <v>-0.1050094982697573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07967786238714937</v>
+        <v>0.08610939136936084</v>
       </c>
       <c r="C47">
-        <v>0.07247927434704339</v>
+        <v>0.08039825960840882</v>
       </c>
       <c r="D47">
-        <v>-0.008251838499443198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01657734622007552</v>
+      </c>
+      <c r="E47">
+        <v>0.05415520080392872</v>
+      </c>
+      <c r="F47">
+        <v>-0.07982551596609981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01687140405297071</v>
+        <v>0.01547092961568667</v>
       </c>
       <c r="C48">
-        <v>0.01235119876866343</v>
+        <v>0.01795057861656297</v>
       </c>
       <c r="D48">
-        <v>-0.007328348691115608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01874168954067734</v>
+      </c>
+      <c r="E48">
+        <v>0.04436521978643625</v>
+      </c>
+      <c r="F48">
+        <v>-0.0976967993088706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08462745043222203</v>
+        <v>0.07130199649645763</v>
       </c>
       <c r="C50">
-        <v>0.06914170008465874</v>
+        <v>0.07024093100578915</v>
       </c>
       <c r="D50">
-        <v>-0.01894270190585646</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005163170195112234</v>
+      </c>
+      <c r="E50">
+        <v>0.05169534667794712</v>
+      </c>
+      <c r="F50">
+        <v>-0.07182325864211285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01069525450787567</v>
+        <v>0.01002891448644529</v>
       </c>
       <c r="C51">
-        <v>0.04627196237744427</v>
+        <v>0.03423740708601954</v>
       </c>
       <c r="D51">
-        <v>0.006482435583947526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04890290374915992</v>
+      </c>
+      <c r="E51">
+        <v>0.02065338423206266</v>
+      </c>
+      <c r="F51">
+        <v>-0.08548612991273946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08211764946181241</v>
+        <v>0.09234083768462986</v>
       </c>
       <c r="C53">
-        <v>0.07352183760519225</v>
+        <v>0.08792474772061395</v>
       </c>
       <c r="D53">
-        <v>-0.02668487514471706</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03849086433931399</v>
+      </c>
+      <c r="E53">
+        <v>0.05282160080247049</v>
+      </c>
+      <c r="F53">
+        <v>-0.08888797788401072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03101511251005113</v>
+        <v>0.027625166430264</v>
       </c>
       <c r="C54">
-        <v>0.02207313099114338</v>
+        <v>0.02701571988407954</v>
       </c>
       <c r="D54">
-        <v>0.0008472045924583761</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03233095093883621</v>
+      </c>
+      <c r="E54">
+        <v>0.03974382557153589</v>
+      </c>
+      <c r="F54">
+        <v>-0.09826373581512957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07218282178959999</v>
+        <v>0.08362279810466233</v>
       </c>
       <c r="C55">
-        <v>0.06467398399382655</v>
+        <v>0.07201499567608011</v>
       </c>
       <c r="D55">
-        <v>-0.03062387129009914</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04567525888521203</v>
+      </c>
+      <c r="E55">
+        <v>0.04383138790862851</v>
+      </c>
+      <c r="F55">
+        <v>-0.06530123253825598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1482010096481245</v>
+        <v>0.144635061888816</v>
       </c>
       <c r="C56">
-        <v>0.09393958708972705</v>
+        <v>0.1066963781134415</v>
       </c>
       <c r="D56">
-        <v>-0.03372792410854628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04904366240305159</v>
+      </c>
+      <c r="E56">
+        <v>0.04703992499528516</v>
+      </c>
+      <c r="F56">
+        <v>-0.0487960428381656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001062336004326069</v>
+        <v>0.0003220178291888218</v>
       </c>
       <c r="C57">
-        <v>0.002832065537134693</v>
+        <v>0.001630836391674066</v>
       </c>
       <c r="D57">
-        <v>0.01827003883052313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01613480601434904</v>
+      </c>
+      <c r="E57">
+        <v>0.007545904318574851</v>
+      </c>
+      <c r="F57">
+        <v>-0.01062321422003368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07215236235493037</v>
+        <v>0.02781330564435835</v>
       </c>
       <c r="C58">
-        <v>0.02360611389039857</v>
+        <v>0.04099095366632845</v>
       </c>
       <c r="D58">
-        <v>0.9364870121874261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4912790165014146</v>
+      </c>
+      <c r="E58">
+        <v>0.6903699035876073</v>
+      </c>
+      <c r="F58">
+        <v>0.4517239469221861</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1375590896746977</v>
+        <v>0.147937555531419</v>
       </c>
       <c r="C59">
-        <v>-0.2032759706277279</v>
+        <v>-0.1862011605119467</v>
       </c>
       <c r="D59">
-        <v>0.01568466388283785</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03219970183208254</v>
+      </c>
+      <c r="E59">
+        <v>0.02575815567434294</v>
+      </c>
+      <c r="F59">
+        <v>-0.02247152205694657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3120532562150235</v>
+        <v>0.2834666238165208</v>
       </c>
       <c r="C60">
-        <v>0.09729527656970315</v>
+        <v>0.09896757919331564</v>
       </c>
       <c r="D60">
-        <v>0.008374385360265755</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2025356382305358</v>
+      </c>
+      <c r="E60">
+        <v>-0.2748982592323379</v>
+      </c>
+      <c r="F60">
+        <v>0.1152754142210682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03791419758419139</v>
+        <v>0.03981767604877724</v>
       </c>
       <c r="C61">
-        <v>0.065136527281418</v>
+        <v>0.06291360466095233</v>
       </c>
       <c r="D61">
-        <v>0.01059061525740096</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0466221640210543</v>
+      </c>
+      <c r="E61">
+        <v>0.02209716323130389</v>
+      </c>
+      <c r="F61">
+        <v>-0.08328452366995168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01374044973213322</v>
+        <v>0.01480996509933104</v>
       </c>
       <c r="C63">
-        <v>0.03562501436533627</v>
+        <v>0.03274520464561746</v>
       </c>
       <c r="D63">
-        <v>-0.001085520589703239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02351684679207284</v>
+      </c>
+      <c r="E63">
+        <v>0.03735821684662025</v>
+      </c>
+      <c r="F63">
+        <v>-0.07775976866861768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04995208806724689</v>
+        <v>0.05490411971287955</v>
       </c>
       <c r="C64">
-        <v>0.03660786680298255</v>
+        <v>0.0542341765547921</v>
       </c>
       <c r="D64">
-        <v>-0.009887086902983339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006819908935753516</v>
+      </c>
+      <c r="E64">
+        <v>0.01969329735373391</v>
+      </c>
+      <c r="F64">
+        <v>-0.08566397505141707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09455743030738789</v>
+        <v>0.06673582920607705</v>
       </c>
       <c r="C65">
-        <v>0.04064208201609217</v>
+        <v>0.03841874164735121</v>
       </c>
       <c r="D65">
-        <v>0.04031376888205279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0859885596411208</v>
+      </c>
+      <c r="E65">
+        <v>0.03296141715739976</v>
+      </c>
+      <c r="F65">
+        <v>-0.02261310465420403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06060258324757287</v>
+        <v>0.05096732631924047</v>
       </c>
       <c r="C66">
-        <v>0.1046913778116029</v>
+        <v>0.0913297738736219</v>
       </c>
       <c r="D66">
-        <v>0.03229523676846682</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08054798325044815</v>
+      </c>
+      <c r="E66">
+        <v>0.02185798888912052</v>
+      </c>
+      <c r="F66">
+        <v>-0.09486768585547008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05031951975953559</v>
+        <v>0.046121419199696</v>
       </c>
       <c r="C67">
-        <v>0.03424141246069076</v>
+        <v>0.03090571097728749</v>
       </c>
       <c r="D67">
-        <v>-0.005641182971311906</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01231968205852287</v>
+      </c>
+      <c r="E67">
+        <v>0.01582244504202533</v>
+      </c>
+      <c r="F67">
+        <v>-0.05331591127709089</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1182149116623821</v>
+        <v>0.1531437915501878</v>
       </c>
       <c r="C68">
-        <v>-0.287439797426995</v>
+        <v>-0.2509977932410314</v>
       </c>
       <c r="D68">
-        <v>-0.001974757210886303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01707923770222996</v>
+      </c>
+      <c r="E68">
+        <v>0.04239807873611075</v>
+      </c>
+      <c r="F68">
+        <v>-0.01913554286237857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08157286136830001</v>
+        <v>0.08563689554291035</v>
       </c>
       <c r="C69">
-        <v>0.06999462737018641</v>
+        <v>0.08695919016956304</v>
       </c>
       <c r="D69">
-        <v>-0.03422085013317883</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01186408546952907</v>
+      </c>
+      <c r="E69">
+        <v>0.0306902645975606</v>
+      </c>
+      <c r="F69">
+        <v>-0.09667846699611057</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.120306031605913</v>
+        <v>0.1451110247575554</v>
       </c>
       <c r="C71">
-        <v>-0.2489040342425925</v>
+        <v>-0.2320738468983767</v>
       </c>
       <c r="D71">
-        <v>0.02455997451245183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01630743239231115</v>
+      </c>
+      <c r="E71">
+        <v>0.06103646856748831</v>
+      </c>
+      <c r="F71">
+        <v>-0.0570272296479459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08408139841773597</v>
+        <v>0.09580411928561089</v>
       </c>
       <c r="C72">
-        <v>0.05093714523527711</v>
+        <v>0.05751911836465452</v>
       </c>
       <c r="D72">
-        <v>-0.01190266275432889</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01912382428922358</v>
+      </c>
+      <c r="E72">
+        <v>0.00915308404337817</v>
+      </c>
+      <c r="F72">
+        <v>-0.08135778774866732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4379101170053786</v>
+        <v>0.3467541918573321</v>
       </c>
       <c r="C73">
-        <v>0.06564405762909889</v>
+        <v>0.07893877317324202</v>
       </c>
       <c r="D73">
-        <v>0.0882237503967207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4326951959264397</v>
+      </c>
+      <c r="E73">
+        <v>-0.4832241346157741</v>
+      </c>
+      <c r="F73">
+        <v>0.2936503940964214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1107679194682281</v>
+        <v>0.1101287183202662</v>
       </c>
       <c r="C74">
-        <v>0.1095689368888694</v>
+        <v>0.1015455581038239</v>
       </c>
       <c r="D74">
-        <v>-0.006819687326260565</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02920188673206303</v>
+      </c>
+      <c r="E74">
+        <v>0.06236929410016132</v>
+      </c>
+      <c r="F74">
+        <v>-0.05555004546181594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2502576397323839</v>
+        <v>0.2548826820081646</v>
       </c>
       <c r="C75">
-        <v>0.1212728977357835</v>
+        <v>0.1389810348833105</v>
       </c>
       <c r="D75">
-        <v>-0.04897037241315403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1290009357755899</v>
+      </c>
+      <c r="E75">
+        <v>0.07339377352652285</v>
+      </c>
+      <c r="F75">
+        <v>-0.0128208384502936</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1124671517495383</v>
+        <v>0.1271102322169515</v>
       </c>
       <c r="C76">
-        <v>0.09333145474598503</v>
+        <v>0.1043913237500084</v>
       </c>
       <c r="D76">
-        <v>-0.02614320237607349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05829440977550657</v>
+      </c>
+      <c r="E76">
+        <v>0.06690366046950315</v>
+      </c>
+      <c r="F76">
+        <v>-0.06964986035894526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07623795874047355</v>
+        <v>0.06122960975681711</v>
       </c>
       <c r="C77">
-        <v>0.05877569277739155</v>
+        <v>0.07055955853860073</v>
       </c>
       <c r="D77">
-        <v>0.05091063442150181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06423022925948305</v>
+      </c>
+      <c r="E77">
+        <v>0.06607290903153891</v>
+      </c>
+      <c r="F77">
+        <v>-0.1171851587533452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04486154135590049</v>
+        <v>0.04343377263616539</v>
       </c>
       <c r="C78">
-        <v>0.04490768787599961</v>
+        <v>0.05547768450384778</v>
       </c>
       <c r="D78">
-        <v>0.01464103462875099</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07220894907307895</v>
+      </c>
+      <c r="E78">
+        <v>0.02056431412554402</v>
+      </c>
+      <c r="F78">
+        <v>-0.1050433719415691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02430628156940331</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03873199955804933</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06032442694499703</v>
+      </c>
+      <c r="E79">
+        <v>0.05186133232085927</v>
+      </c>
+      <c r="F79">
+        <v>-0.03859923103925123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0447626702652159</v>
+        <v>0.03434998567649118</v>
       </c>
       <c r="C80">
-        <v>0.05577163116584652</v>
+        <v>0.05494044724510302</v>
       </c>
       <c r="D80">
-        <v>0.0260917449081311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04770083594033113</v>
+      </c>
+      <c r="E80">
+        <v>0.009443003302701734</v>
+      </c>
+      <c r="F80">
+        <v>-0.03456130589180248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1415516251260897</v>
+        <v>0.1393506507293698</v>
       </c>
       <c r="C81">
-        <v>0.07584033322274866</v>
+        <v>0.09814212138506502</v>
       </c>
       <c r="D81">
-        <v>-0.02355785034096043</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09469647940398257</v>
+      </c>
+      <c r="E81">
+        <v>0.08145043592337758</v>
+      </c>
+      <c r="F81">
+        <v>-0.0201782517204741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1358352118168062</v>
+        <v>0.1974719400244464</v>
       </c>
       <c r="C82">
-        <v>0.05843722767393712</v>
+        <v>0.1391724533761568</v>
       </c>
       <c r="D82">
-        <v>-0.1183600265574641</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2270422298909767</v>
+      </c>
+      <c r="E82">
+        <v>0.01936260615426942</v>
+      </c>
+      <c r="F82">
+        <v>-0.08144230930020112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02789153593608219</v>
+        <v>0.02721961987342901</v>
       </c>
       <c r="C83">
-        <v>0.02043630202440468</v>
+        <v>0.04043050874374531</v>
       </c>
       <c r="D83">
-        <v>0.01555040943165104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03536945872766457</v>
+      </c>
+      <c r="E83">
+        <v>0.008889914419929309</v>
+      </c>
+      <c r="F83">
+        <v>-0.04965084553702703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2264838196298039</v>
+        <v>0.2036309834422317</v>
       </c>
       <c r="C85">
-        <v>0.1104240662643717</v>
+        <v>0.1231709499053408</v>
       </c>
       <c r="D85">
-        <v>-0.09013482179984607</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.103129171163946</v>
+      </c>
+      <c r="E85">
+        <v>0.005592347581478232</v>
+      </c>
+      <c r="F85">
+        <v>0.02253221358240324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003805669463895587</v>
+        <v>0.01175098702957363</v>
       </c>
       <c r="C86">
-        <v>0.02539502329786968</v>
+        <v>0.03092154045703131</v>
       </c>
       <c r="D86">
-        <v>0.02500635580084664</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07065256268304294</v>
+      </c>
+      <c r="E86">
+        <v>0.04157236525465824</v>
+      </c>
+      <c r="F86">
+        <v>-0.1392992899451094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01814651608853106</v>
+        <v>0.02089603958673376</v>
       </c>
       <c r="C87">
-        <v>0.0166476429033467</v>
+        <v>0.02212255877381466</v>
       </c>
       <c r="D87">
-        <v>0.09016959378161023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09292904975672478</v>
+      </c>
+      <c r="E87">
+        <v>0.08695638603488801</v>
+      </c>
+      <c r="F87">
+        <v>-0.09699792269491088</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1050095667167426</v>
+        <v>0.0908200483422813</v>
       </c>
       <c r="C88">
-        <v>0.0701599999568617</v>
+        <v>0.06335332231752804</v>
       </c>
       <c r="D88">
-        <v>-0.01461892448911097</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01156465861132658</v>
+      </c>
+      <c r="E88">
+        <v>0.03509496611201016</v>
+      </c>
+      <c r="F88">
+        <v>-0.0710271736666316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1856725940949537</v>
+        <v>0.2263718705066497</v>
       </c>
       <c r="C89">
-        <v>-0.3712113757069677</v>
+        <v>-0.3771321008805143</v>
       </c>
       <c r="D89">
-        <v>-0.02601380433951266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01414558359964464</v>
+      </c>
+      <c r="E89">
+        <v>0.04007088835301299</v>
+      </c>
+      <c r="F89">
+        <v>-0.1009475336583109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1777350994891437</v>
+        <v>0.2044079639342563</v>
       </c>
       <c r="C90">
-        <v>-0.3459365360466143</v>
+        <v>-0.3136158223693289</v>
       </c>
       <c r="D90">
-        <v>-0.01017240591911339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01149988060775941</v>
+      </c>
+      <c r="E90">
+        <v>0.0666529161760693</v>
+      </c>
+      <c r="F90">
+        <v>-0.04993050536407913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1934977778312586</v>
+        <v>0.1854901061610328</v>
       </c>
       <c r="C91">
-        <v>0.1170381464295866</v>
+        <v>0.141612922607075</v>
       </c>
       <c r="D91">
-        <v>-0.05099515063471955</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1056346829334572</v>
+      </c>
+      <c r="E91">
+        <v>0.06515786813900148</v>
+      </c>
+      <c r="F91">
+        <v>-0.03388892394632628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1723403947941421</v>
+        <v>0.1841713916000038</v>
       </c>
       <c r="C92">
-        <v>-0.2915611043219025</v>
+        <v>-0.2793319322316368</v>
       </c>
       <c r="D92">
-        <v>-0.01257975637876121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003162140160212803</v>
+      </c>
+      <c r="E92">
+        <v>0.07152849000744731</v>
+      </c>
+      <c r="F92">
+        <v>-0.07727201530078651</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2050001081529369</v>
+        <v>0.2289729237784019</v>
       </c>
       <c r="C93">
-        <v>-0.3337565337670584</v>
+        <v>-0.3181850290992244</v>
       </c>
       <c r="D93">
-        <v>-0.003472191825699603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001145708713052808</v>
+      </c>
+      <c r="E93">
+        <v>0.05165030232355709</v>
+      </c>
+      <c r="F93">
+        <v>-0.04590874053692398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3140910001320373</v>
+        <v>0.3409153193502685</v>
       </c>
       <c r="C94">
-        <v>0.1737235722733723</v>
+        <v>0.1894397515249755</v>
       </c>
       <c r="D94">
-        <v>-0.186946939868989</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4722371730150678</v>
+      </c>
+      <c r="E94">
+        <v>0.1525220189992166</v>
+      </c>
+      <c r="F94">
+        <v>0.4356884952463712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09048944932568781</v>
+        <v>0.08291206392676305</v>
       </c>
       <c r="C95">
-        <v>0.06639461993161619</v>
+        <v>0.07080614250821862</v>
       </c>
       <c r="D95">
-        <v>0.03739771372504221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1571611342875315</v>
+      </c>
+      <c r="E95">
+        <v>-0.1277846314551753</v>
+      </c>
+      <c r="F95">
+        <v>-0.1826265179551324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.193948089074806</v>
+        <v>0.1884340309847106</v>
       </c>
       <c r="C98">
-        <v>0.01690791466762545</v>
+        <v>0.04175486494255715</v>
       </c>
       <c r="D98">
-        <v>0.04818250415405691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1764014208082165</v>
+      </c>
+      <c r="E98">
+        <v>-0.1573169199246696</v>
+      </c>
+      <c r="F98">
+        <v>0.04493330632213768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.007537782987691438</v>
+        <v>0.00608976835144151</v>
       </c>
       <c r="C101">
-        <v>0.02610309761272367</v>
+        <v>0.02609302765906733</v>
       </c>
       <c r="D101">
-        <v>-0.01669865169520254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02142032534380147</v>
+      </c>
+      <c r="E101">
+        <v>0.02801432311928369</v>
+      </c>
+      <c r="F101">
+        <v>-0.09045016785931528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1229257151458924</v>
+        <v>0.1234512183644346</v>
       </c>
       <c r="C102">
-        <v>0.07537843859278663</v>
+        <v>0.1001308353558432</v>
       </c>
       <c r="D102">
-        <v>-0.0301060218225657</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0508789419393357</v>
+      </c>
+      <c r="E102">
+        <v>-0.00713481037402959</v>
+      </c>
+      <c r="F102">
+        <v>-0.03727645502529645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
